--- a/Code/Results/Cases/Case_1_131/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_131/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.70001332789419</v>
+        <v>16.73645575277018</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.034153729786495</v>
+        <v>11.73410725120842</v>
       </c>
       <c r="E2">
-        <v>12.39978199330684</v>
+        <v>18.10012553535841</v>
       </c>
       <c r="F2">
-        <v>19.80104367057432</v>
+        <v>29.14199549063542</v>
       </c>
       <c r="G2">
-        <v>24.58999569633168</v>
+        <v>27.48748284503913</v>
       </c>
       <c r="H2">
-        <v>8.565017692117131</v>
+        <v>13.78297157516984</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.523704913257427</v>
+        <v>12.33477196596838</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.089782474903416</v>
+        <v>8.920168514362683</v>
       </c>
       <c r="M2">
-        <v>12.48917454081706</v>
+        <v>15.39100559533579</v>
       </c>
       <c r="N2">
-        <v>14.25756474152483</v>
+        <v>19.45251235619546</v>
       </c>
       <c r="O2">
-        <v>14.60648955980163</v>
+        <v>20.84525897907064</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.84352627229367</v>
+        <v>16.53283508584281</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.105617527855301</v>
+        <v>11.7667170440744</v>
       </c>
       <c r="E3">
-        <v>12.41307583350118</v>
+        <v>18.12424347219878</v>
       </c>
       <c r="F3">
-        <v>19.44789924652794</v>
+        <v>29.19100092302396</v>
       </c>
       <c r="G3">
-        <v>23.48512339454092</v>
+        <v>27.35491365961642</v>
       </c>
       <c r="H3">
-        <v>8.485874971658463</v>
+        <v>13.80982709129547</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.500336459334088</v>
+        <v>12.33918486265699</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.572517715862677</v>
+        <v>8.783460466770141</v>
       </c>
       <c r="M3">
-        <v>11.88971911965238</v>
+        <v>15.26942218383456</v>
       </c>
       <c r="N3">
-        <v>14.27404719955786</v>
+        <v>19.4788699560045</v>
       </c>
       <c r="O3">
-        <v>14.26071563420934</v>
+        <v>20.85713276023275</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.295159605035</v>
+        <v>16.40878950349778</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.151539659449381</v>
+        <v>11.78788477026587</v>
       </c>
       <c r="E4">
-        <v>12.42390407326414</v>
+        <v>18.14053426271277</v>
       </c>
       <c r="F4">
-        <v>19.24588157333797</v>
+        <v>29.22826030217788</v>
       </c>
       <c r="G4">
-        <v>22.80342880555687</v>
+        <v>27.28250594985066</v>
       </c>
       <c r="H4">
-        <v>8.442739402240949</v>
+        <v>13.82876276432676</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.487111774687307</v>
+        <v>12.34257678219054</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.238067856300948</v>
+        <v>8.698890822257509</v>
       </c>
       <c r="M4">
-        <v>11.50790933734445</v>
+        <v>15.19573019687533</v>
       </c>
       <c r="N4">
-        <v>14.2885853131338</v>
+        <v>19.49717136066739</v>
       </c>
       <c r="O4">
-        <v>14.05639577517636</v>
+        <v>20.86938129633954</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.06625423048181</v>
+        <v>16.35853878715943</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.170766810031938</v>
+        <v>11.79679950932524</v>
       </c>
       <c r="E5">
-        <v>12.42898691442682</v>
+        <v>18.14754677792251</v>
       </c>
       <c r="F5">
-        <v>19.16729975879383</v>
+        <v>29.24524355731175</v>
       </c>
       <c r="G5">
-        <v>22.52524966249161</v>
+        <v>27.25528690026858</v>
       </c>
       <c r="H5">
-        <v>8.426514334095451</v>
+        <v>13.83709397518701</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.48200819522958</v>
+        <v>12.34413140226814</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.097595255179161</v>
+        <v>8.664304754567866</v>
       </c>
       <c r="M5">
-        <v>11.3490443715427</v>
+        <v>15.16596519889268</v>
       </c>
       <c r="N5">
-        <v>14.29560152348342</v>
+        <v>19.50516289960403</v>
       </c>
       <c r="O5">
-        <v>13.97521684620841</v>
+        <v>20.87561897435698</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.02792304374494</v>
+        <v>16.35021428199363</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.173990475187425</v>
+        <v>11.7982972550542</v>
       </c>
       <c r="E6">
-        <v>12.42987139201154</v>
+        <v>18.14873381620735</v>
       </c>
       <c r="F6">
-        <v>19.1544775292387</v>
+        <v>29.2481722103026</v>
       </c>
       <c r="G6">
-        <v>22.47904906916857</v>
+        <v>27.25090608056239</v>
       </c>
       <c r="H6">
-        <v>8.423901263124451</v>
+        <v>13.83851448456749</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.481178084126828</v>
+        <v>12.34439998048774</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.074019228852784</v>
+        <v>8.658555361903158</v>
       </c>
       <c r="M6">
-        <v>11.32247308037275</v>
+        <v>15.16103943216011</v>
       </c>
       <c r="N6">
-        <v>14.29683195109</v>
+        <v>19.50652214492904</v>
       </c>
       <c r="O6">
-        <v>13.9618650284261</v>
+        <v>20.87672998502585</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.29209422866376</v>
+        <v>16.4081105251263</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.151796884498814</v>
+        <v>11.78800382753092</v>
       </c>
       <c r="E7">
-        <v>12.42396990864341</v>
+        <v>18.14062732056379</v>
       </c>
       <c r="F7">
-        <v>19.24480662835289</v>
+        <v>29.22848206179384</v>
       </c>
       <c r="G7">
-        <v>22.79967811019196</v>
+        <v>27.28212956873957</v>
       </c>
       <c r="H7">
-        <v>8.442515134959001</v>
+        <v>13.82887263332551</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.487041785796928</v>
+        <v>12.34259704931189</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.236190241384694</v>
+        <v>8.69842483449259</v>
       </c>
       <c r="M7">
-        <v>11.50577982554039</v>
+        <v>15.19532767167691</v>
       </c>
       <c r="N7">
-        <v>14.28867554044303</v>
+        <v>19.49727697559176</v>
       </c>
       <c r="O7">
-        <v>14.05529243889628</v>
+        <v>20.86946037465553</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.40947624367362</v>
+        <v>16.66607609236047</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.058370211441336</v>
+        <v>11.74511387953175</v>
       </c>
       <c r="E8">
-        <v>12.40381241940274</v>
+        <v>18.10813444780944</v>
       </c>
       <c r="F8">
-        <v>19.67621899066716</v>
+        <v>29.15740274119919</v>
       </c>
       <c r="G8">
-        <v>24.20997290201844</v>
+        <v>27.43992442673188</v>
       </c>
       <c r="H8">
-        <v>8.536585564250734</v>
+        <v>13.79172343724286</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.515416123687771</v>
+        <v>12.3361523821658</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.914954645881259</v>
+        <v>8.873183364502522</v>
       </c>
       <c r="M8">
-        <v>12.28543406681711</v>
+        <v>15.34889846333627</v>
       </c>
       <c r="N8">
-        <v>14.26231938159362</v>
+        <v>19.46116155551773</v>
       </c>
       <c r="O8">
-        <v>14.48565543594225</v>
+        <v>20.84832395047616</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.41501453531361</v>
+        <v>17.17737912410628</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.891390610780753</v>
+        <v>11.67005901000644</v>
       </c>
       <c r="E9">
-        <v>12.38543557383592</v>
+        <v>18.05612626594493</v>
       </c>
       <c r="F9">
-        <v>20.63841082355118</v>
+        <v>29.07502257346488</v>
       </c>
       <c r="G9">
-        <v>26.9323817818502</v>
+        <v>27.81932331969288</v>
       </c>
       <c r="H9">
-        <v>8.765097210706822</v>
+        <v>13.73829781908943</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.579835838498548</v>
+        <v>12.3288941337992</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.11062002727131</v>
+        <v>9.209369997413393</v>
       </c>
       <c r="M9">
-        <v>13.69876607121766</v>
+        <v>15.65662441580921</v>
       </c>
       <c r="N9">
-        <v>14.24656431109265</v>
+        <v>19.4070965435142</v>
       </c>
       <c r="O9">
-        <v>15.38950310631665</v>
+        <v>20.84620954424974</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.76793020992919</v>
+        <v>17.55323898444518</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.778646893228009</v>
+        <v>11.62038673089277</v>
       </c>
       <c r="E10">
-        <v>12.38482574276093</v>
+        <v>18.02498579318376</v>
       </c>
       <c r="F10">
-        <v>21.41369842628434</v>
+        <v>29.04937287849345</v>
       </c>
       <c r="G10">
-        <v>28.88722898876706</v>
+        <v>28.13863183030236</v>
       </c>
       <c r="H10">
-        <v>8.960647935508051</v>
+        <v>13.71090205959559</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.632326604978747</v>
+        <v>12.32679484454222</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.90503868209284</v>
+        <v>9.450432509690522</v>
       </c>
       <c r="M10">
-        <v>14.6748526209955</v>
+        <v>15.8852969054409</v>
       </c>
       <c r="N10">
-        <v>14.25812493183601</v>
+        <v>19.3775286342862</v>
       </c>
       <c r="O10">
-        <v>16.08540878502959</v>
+        <v>20.86859199346652</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.35622500601744</v>
+        <v>17.72362394845359</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.729530597402134</v>
+        <v>11.59896723638887</v>
       </c>
       <c r="E11">
-        <v>12.38734493406757</v>
+        <v>18.01233955052062</v>
       </c>
       <c r="F11">
-        <v>21.78058020005601</v>
+        <v>29.04528898487953</v>
       </c>
       <c r="G11">
-        <v>29.7637379713457</v>
+        <v>28.29218730582804</v>
       </c>
       <c r="H11">
-        <v>9.055740721960941</v>
+        <v>13.70101462175482</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.657284516979299</v>
+        <v>12.32653191567819</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.24805604111053</v>
+        <v>9.55841543031808</v>
       </c>
       <c r="M11">
-        <v>15.16789616279111</v>
+        <v>15.98958219769665</v>
       </c>
       <c r="N11">
-        <v>14.2686803337731</v>
+        <v>19.36626852275334</v>
       </c>
       <c r="O11">
-        <v>16.40796147951857</v>
+        <v>20.88394895330197</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.57503644913526</v>
+        <v>17.7880057623545</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.711245885249524</v>
+        <v>11.59102466956632</v>
       </c>
       <c r="E12">
-        <v>12.38870057729241</v>
+        <v>18.00776805093908</v>
       </c>
       <c r="F12">
-        <v>21.92149019955747</v>
+        <v>29.04483282004717</v>
       </c>
       <c r="G12">
-        <v>30.09363174720785</v>
+        <v>28.35148078102802</v>
       </c>
       <c r="H12">
-        <v>9.092639239777077</v>
+        <v>13.69764068484265</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.666886918782874</v>
+        <v>12.32653100051839</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.375303388572</v>
+        <v>9.599033275996211</v>
       </c>
       <c r="M12">
-        <v>15.35063436318308</v>
+        <v>16.02908413674659</v>
       </c>
       <c r="N12">
-        <v>14.27346177071676</v>
+        <v>19.36231839718539</v>
       </c>
       <c r="O12">
-        <v>16.53089098181461</v>
+        <v>20.89050527598042</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.52808848747154</v>
+        <v>17.77414702027652</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.715169792398141</v>
+        <v>11.59272775864419</v>
       </c>
       <c r="E13">
-        <v>12.3883907584115</v>
+        <v>18.00874295692646</v>
       </c>
       <c r="F13">
-        <v>21.89105563603933</v>
+        <v>29.04488258400023</v>
       </c>
       <c r="G13">
-        <v>30.022675587548</v>
+        <v>28.33866072529333</v>
       </c>
       <c r="H13">
-        <v>9.084652856364833</v>
+        <v>13.69835085911404</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.664812198802146</v>
+        <v>12.32652682401448</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.34801608610475</v>
+        <v>9.590298124867722</v>
       </c>
       <c r="M13">
-        <v>15.31145444090095</v>
+        <v>16.02057659711108</v>
       </c>
       <c r="N13">
-        <v>14.27239675343075</v>
+        <v>19.36315518827984</v>
       </c>
       <c r="O13">
-        <v>16.50438207011324</v>
+        <v>20.88906035779853</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.37430645116381</v>
+        <v>17.72892377259554</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.72801998368204</v>
+        <v>11.59831042286045</v>
       </c>
       <c r="E14">
-        <v>12.38744841624112</v>
+        <v>18.01195910108383</v>
       </c>
       <c r="F14">
-        <v>21.79213362472264</v>
+        <v>29.04522960875358</v>
       </c>
       <c r="G14">
-        <v>29.7909199406642</v>
+        <v>28.29704274647758</v>
       </c>
       <c r="H14">
-        <v>9.058758536308503</v>
+        <v>13.70072962693766</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.658071500664459</v>
+        <v>12.32652986828456</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.25857779095045</v>
+        <v>9.561762731590523</v>
       </c>
       <c r="M14">
-        <v>15.18300949965779</v>
+        <v>15.99283196764656</v>
       </c>
       <c r="N14">
-        <v>14.26905785474571</v>
+        <v>19.36593726057033</v>
       </c>
       <c r="O14">
-        <v>16.41805961475088</v>
+        <v>20.88447351644482</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.27959298358747</v>
+        <v>17.70120352160957</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.735932139924905</v>
+        <v>11.601751893709</v>
       </c>
       <c r="E15">
-        <v>12.38692350028048</v>
+        <v>18.01395735364271</v>
       </c>
       <c r="F15">
-        <v>21.73179703729725</v>
+        <v>29.04558414110818</v>
       </c>
       <c r="G15">
-        <v>29.64869496256955</v>
+        <v>28.27169821609819</v>
       </c>
       <c r="H15">
-        <v>9.043013457606577</v>
+        <v>13.70223490072384</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.653962227655814</v>
+        <v>12.32654455429612</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.2034496396826</v>
+        <v>9.544247517629955</v>
       </c>
       <c r="M15">
-        <v>15.10381742191012</v>
+        <v>15.97583828647094</v>
       </c>
       <c r="N15">
-        <v>14.26711550723261</v>
+        <v>19.36768219583564</v>
       </c>
       <c r="O15">
-        <v>16.3652848704307</v>
+        <v>20.88176033380772</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.72893195536001</v>
+        <v>17.54208732684557</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.781900639363489</v>
+        <v>11.62181016521264</v>
       </c>
       <c r="E16">
-        <v>12.38471734378631</v>
+        <v>18.02584273519824</v>
       </c>
       <c r="F16">
-        <v>21.39000226306279</v>
+        <v>29.04979237806574</v>
       </c>
       <c r="G16">
-        <v>28.82967331249235</v>
+        <v>28.12875957965688</v>
       </c>
       <c r="H16">
-        <v>8.954557464999542</v>
+        <v>13.71160004020328</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.630716941659911</v>
+        <v>12.32682587961823</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.88225155893252</v>
+        <v>9.44333907129659</v>
       </c>
       <c r="M16">
-        <v>14.64207466133165</v>
+        <v>15.87848462839128</v>
       </c>
       <c r="N16">
-        <v>14.25754362220019</v>
+        <v>19.37830848923437</v>
       </c>
       <c r="O16">
-        <v>16.06444305606198</v>
+        <v>20.86769225866071</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.38411715847901</v>
+        <v>17.44428358062749</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.810658462749701</v>
+        <v>11.63441615837895</v>
       </c>
       <c r="E17">
-        <v>12.38407990182614</v>
+        <v>18.03352243413419</v>
       </c>
       <c r="F17">
-        <v>21.18391498441739</v>
+        <v>29.05431654521034</v>
       </c>
       <c r="G17">
-        <v>28.32381444614989</v>
+        <v>28.04316380130034</v>
       </c>
       <c r="H17">
-        <v>8.901869286726431</v>
+        <v>13.7180047675679</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.616730487276248</v>
+        <v>12.32717510152936</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.68049738491901</v>
+        <v>9.380982323246018</v>
       </c>
       <c r="M17">
-        <v>14.38658079349848</v>
+        <v>15.81880950600713</v>
       </c>
       <c r="N17">
-        <v>14.25304416334066</v>
+        <v>19.38538760005061</v>
       </c>
       <c r="O17">
-        <v>15.88136330457635</v>
+        <v>20.86038535999232</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.18323522783901</v>
+        <v>17.3879765261158</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.827403415593422</v>
+        <v>11.64177758627717</v>
       </c>
       <c r="E18">
-        <v>12.38397652484488</v>
+        <v>18.03808270745438</v>
       </c>
       <c r="F18">
-        <v>21.0667193701139</v>
+        <v>29.05763266062959</v>
       </c>
       <c r="G18">
-        <v>28.03166478884942</v>
+        <v>27.99471571176109</v>
       </c>
       <c r="H18">
-        <v>8.872141683372483</v>
+        <v>13.72193098256267</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.608787700275419</v>
+        <v>12.32744115605813</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.56272474517583</v>
+        <v>9.344960273695053</v>
       </c>
       <c r="M18">
-        <v>14.24379108019198</v>
+        <v>15.78451208379518</v>
       </c>
       <c r="N18">
-        <v>14.25095333539252</v>
+        <v>19.38966556671882</v>
       </c>
       <c r="O18">
-        <v>15.77662776631414</v>
+        <v>20.85666996283564</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.11478356031142</v>
+        <v>17.3689044905773</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.833107980213657</v>
+        <v>11.64428908887996</v>
       </c>
       <c r="E19">
-        <v>12.38398675211322</v>
+        <v>18.03965135318692</v>
       </c>
       <c r="F19">
-        <v>21.02727104365223</v>
+        <v>29.05887805564678</v>
       </c>
       <c r="G19">
-        <v>27.93254946717243</v>
+        <v>27.97844815935899</v>
       </c>
       <c r="H19">
-        <v>8.862175343801541</v>
+        <v>13.72330196148457</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.606116019242528</v>
+        <v>12.32754246040949</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.52255223606995</v>
+        <v>9.33273800597776</v>
       </c>
       <c r="M19">
-        <v>14.19515914481798</v>
+        <v>15.77290485343145</v>
       </c>
       <c r="N19">
-        <v>14.25033011556198</v>
+        <v>19.39114947085489</v>
       </c>
       <c r="O19">
-        <v>15.74126589189329</v>
+        <v>20.85549577978502</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.42108804879464</v>
+        <v>17.4547008268169</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.807575992848404</v>
+        <v>11.63306276702524</v>
       </c>
       <c r="E20">
-        <v>12.38412051513968</v>
+        <v>18.03269011383845</v>
       </c>
       <c r="F20">
-        <v>21.20571505764044</v>
+        <v>29.05376105007761</v>
       </c>
       <c r="G20">
-        <v>28.37778895421435</v>
+        <v>28.05219478327232</v>
       </c>
       <c r="H20">
-        <v>8.907418238287091</v>
+        <v>13.71729788754078</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.618208855835562</v>
+        <v>12.32713118543933</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.70215345515679</v>
+        <v>9.387636695175956</v>
       </c>
       <c r="M20">
-        <v>14.41287165917528</v>
+        <v>15.82515951035149</v>
       </c>
       <c r="N20">
-        <v>14.25347152279441</v>
+        <v>19.38461267883322</v>
       </c>
       <c r="O20">
-        <v>15.90079432629041</v>
+        <v>20.86111277510919</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.41958389528206</v>
+        <v>17.74221113711787</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.724237012797239</v>
+        <v>11.59666609051051</v>
       </c>
       <c r="E21">
-        <v>12.38771430747586</v>
+        <v>18.0110085519617</v>
       </c>
       <c r="F21">
-        <v>21.82113617641257</v>
+        <v>29.04509809442106</v>
       </c>
       <c r="G21">
-        <v>29.85904830123286</v>
+        <v>28.30923626817389</v>
       </c>
       <c r="H21">
-        <v>9.066340153997015</v>
+        <v>13.70002087856494</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.660047329572555</v>
+        <v>12.32652630371959</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.28491980377763</v>
+        <v>9.570151921423891</v>
       </c>
       <c r="M21">
-        <v>15.22084434791337</v>
+        <v>16.00098113730973</v>
       </c>
       <c r="N21">
-        <v>14.27001710066345</v>
+        <v>19.3651115904944</v>
       </c>
       <c r="O21">
-        <v>16.44339384202771</v>
+        <v>20.8858007019986</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.0490440828329</v>
+        <v>17.9292800870643</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.671605146539332</v>
+        <v>11.57386077742357</v>
       </c>
       <c r="E22">
-        <v>12.39240411354299</v>
+        <v>17.99810477496361</v>
       </c>
       <c r="F22">
-        <v>22.23486171339527</v>
+        <v>29.04579087427189</v>
       </c>
       <c r="G22">
-        <v>30.81530167014821</v>
+        <v>28.48387962923858</v>
       </c>
       <c r="H22">
-        <v>9.175388492487462</v>
+        <v>13.69088717386358</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.688271755891414</v>
+        <v>12.32670557864932</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.65037073416236</v>
+        <v>9.687831575115844</v>
       </c>
       <c r="M22">
-        <v>15.74538233978117</v>
+        <v>16.11594495091802</v>
       </c>
       <c r="N22">
-        <v>14.28541310913433</v>
+        <v>19.35419520853594</v>
       </c>
       <c r="O22">
-        <v>16.80256530501968</v>
+        <v>20.90625268575016</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.71521910966496</v>
+        <v>17.82953168329494</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.699526959196977</v>
+        <v>11.58594276822543</v>
       </c>
       <c r="E23">
-        <v>12.38968703481995</v>
+        <v>18.00487628071415</v>
       </c>
       <c r="F23">
-        <v>22.01301543389443</v>
+        <v>29.04483998108985</v>
       </c>
       <c r="G23">
-        <v>30.30606390969755</v>
+        <v>28.39007710329715</v>
       </c>
       <c r="H23">
-        <v>9.11671116831746</v>
+        <v>13.69556461512465</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.673128559006422</v>
+        <v>12.32655760906517</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.45673379008687</v>
+        <v>9.625180649166468</v>
       </c>
       <c r="M23">
-        <v>15.46753248092354</v>
+        <v>16.0545902412576</v>
       </c>
       <c r="N23">
-        <v>14.27676906490558</v>
+        <v>19.35985455041504</v>
       </c>
       <c r="O23">
-        <v>16.61047486800329</v>
+        <v>20.89494330731488</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.40438173798554</v>
+        <v>17.44999142982352</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.808968918270334</v>
+        <v>11.63367427988735</v>
       </c>
       <c r="E24">
-        <v>12.38410133433691</v>
+        <v>18.03306595375646</v>
       </c>
       <c r="F24">
-        <v>21.19585523199402</v>
+        <v>29.05400996189475</v>
       </c>
       <c r="G24">
-        <v>28.35339119047924</v>
+        <v>28.0481094989131</v>
       </c>
       <c r="H24">
-        <v>8.904907802522741</v>
+        <v>13.71761670778362</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.617540179208822</v>
+        <v>12.32715083649364</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.69236829429452</v>
+        <v>9.384628787951495</v>
       </c>
       <c r="M24">
-        <v>14.40099097678054</v>
+        <v>15.82228863835734</v>
       </c>
       <c r="N24">
-        <v>14.25327677046222</v>
+        <v>19.38496237244095</v>
       </c>
       <c r="O24">
-        <v>15.89200793766161</v>
+        <v>20.86078239839372</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.89321325792055</v>
+        <v>17.03879897700814</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.934822367215153</v>
+        <v>11.68939921947856</v>
       </c>
       <c r="E25">
-        <v>12.38814234997206</v>
+        <v>18.0689492843708</v>
       </c>
       <c r="F25">
-        <v>20.36589560918629</v>
+        <v>29.09119029266744</v>
       </c>
       <c r="G25">
-        <v>26.202680033495</v>
+        <v>27.70939766966956</v>
       </c>
       <c r="H25">
-        <v>8.698469582076616</v>
+        <v>13.75066947724375</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.561487973710138</v>
+        <v>12.33028648435531</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.80184679526011</v>
+        <v>9.119326670141046</v>
       </c>
       <c r="M25">
-        <v>13.3296041266478</v>
+        <v>15.57281856809577</v>
       </c>
       <c r="N25">
-        <v>14.24685414718579</v>
+        <v>19.41993487110678</v>
       </c>
       <c r="O25">
-        <v>15.13905967883935</v>
+        <v>20.84257237958606</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_131/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_131/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.73645575277018</v>
+        <v>15.70001332789421</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>11.73410725120842</v>
+        <v>7.034153729786495</v>
       </c>
       <c r="E2">
-        <v>18.10012553535841</v>
+        <v>12.39978199330684</v>
       </c>
       <c r="F2">
-        <v>29.14199549063542</v>
+        <v>19.80104367057438</v>
       </c>
       <c r="G2">
-        <v>27.48748284503913</v>
+        <v>24.58999569633173</v>
       </c>
       <c r="H2">
-        <v>13.78297157516984</v>
+        <v>8.565017692117136</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>12.33477196596838</v>
+        <v>8.523704913257358</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.920168514362683</v>
+        <v>9.08978247490346</v>
       </c>
       <c r="M2">
-        <v>15.39100559533579</v>
+        <v>12.48917454081707</v>
       </c>
       <c r="N2">
-        <v>19.45251235619546</v>
+        <v>14.25756474152486</v>
       </c>
       <c r="O2">
-        <v>20.84525897907064</v>
+        <v>14.60648955980166</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.53283508584281</v>
+        <v>14.84352627229365</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>11.7667170440744</v>
+        <v>7.105617527855233</v>
       </c>
       <c r="E3">
-        <v>18.12424347219878</v>
+        <v>12.41307583350112</v>
       </c>
       <c r="F3">
-        <v>29.19100092302396</v>
+        <v>19.44789924652789</v>
       </c>
       <c r="G3">
-        <v>27.35491365961642</v>
+        <v>23.48512339454088</v>
       </c>
       <c r="H3">
-        <v>13.80982709129547</v>
+        <v>8.485874971658459</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.33918486265699</v>
+        <v>8.50033645933412</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.783460466770141</v>
+        <v>8.572517715862709</v>
       </c>
       <c r="M3">
-        <v>15.26942218383456</v>
+        <v>11.88971911965237</v>
       </c>
       <c r="N3">
-        <v>19.4788699560045</v>
+        <v>14.27404719955786</v>
       </c>
       <c r="O3">
-        <v>20.85713276023275</v>
+        <v>14.26071563420934</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.40878950349778</v>
+        <v>14.29515960503495</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>11.78788477026587</v>
+        <v>7.151539659449316</v>
       </c>
       <c r="E4">
-        <v>18.14053426271277</v>
+        <v>12.42390407326407</v>
       </c>
       <c r="F4">
-        <v>29.22826030217788</v>
+        <v>19.2458815733379</v>
       </c>
       <c r="G4">
-        <v>27.28250594985066</v>
+        <v>22.80342880555683</v>
       </c>
       <c r="H4">
-        <v>13.82876276432676</v>
+        <v>8.44273940224085</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.34257678219054</v>
+        <v>8.487111774687275</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.698890822257509</v>
+        <v>8.238067856300967</v>
       </c>
       <c r="M4">
-        <v>15.19573019687533</v>
+        <v>11.50790933734444</v>
       </c>
       <c r="N4">
-        <v>19.49717136066739</v>
+        <v>14.28858531313376</v>
       </c>
       <c r="O4">
-        <v>20.86938129633954</v>
+        <v>14.05639577517632</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.35853878715943</v>
+        <v>14.06625423048182</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.79679950932524</v>
+        <v>7.170766810031938</v>
       </c>
       <c r="E5">
-        <v>18.14754677792251</v>
+        <v>12.42898691442682</v>
       </c>
       <c r="F5">
-        <v>29.24524355731175</v>
+        <v>19.16729975879378</v>
       </c>
       <c r="G5">
-        <v>27.25528690026858</v>
+        <v>22.52524966249152</v>
       </c>
       <c r="H5">
-        <v>13.83709397518701</v>
+        <v>8.426514334095456</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12.34413140226814</v>
+        <v>8.482008195229582</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.664304754567866</v>
+        <v>8.097595255179202</v>
       </c>
       <c r="M5">
-        <v>15.16596519889268</v>
+        <v>11.34904437154268</v>
       </c>
       <c r="N5">
-        <v>19.50516289960403</v>
+        <v>14.29560152348343</v>
       </c>
       <c r="O5">
-        <v>20.87561897435698</v>
+        <v>13.97521684620839</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.35021428199363</v>
+        <v>14.02792304374495</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>11.7982972550542</v>
+        <v>7.173990475187359</v>
       </c>
       <c r="E6">
-        <v>18.14873381620735</v>
+        <v>12.42987139201147</v>
       </c>
       <c r="F6">
-        <v>29.2481722103026</v>
+        <v>19.15447752923861</v>
       </c>
       <c r="G6">
-        <v>27.25090608056239</v>
+        <v>22.47904906916856</v>
       </c>
       <c r="H6">
-        <v>13.83851448456749</v>
+        <v>8.423901263124408</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>12.34439998048774</v>
+        <v>8.481178084126794</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.658555361903158</v>
+        <v>8.074019228852832</v>
       </c>
       <c r="M6">
-        <v>15.16103943216011</v>
+        <v>11.32247308037274</v>
       </c>
       <c r="N6">
-        <v>19.50652214492904</v>
+        <v>14.29683195108996</v>
       </c>
       <c r="O6">
-        <v>20.87672998502585</v>
+        <v>13.96186502842606</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.4081105251263</v>
+        <v>14.29209422866372</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>11.78800382753092</v>
+        <v>7.151796884498814</v>
       </c>
       <c r="E7">
-        <v>18.14062732056379</v>
+        <v>12.42396990864341</v>
       </c>
       <c r="F7">
-        <v>29.22848206179384</v>
+        <v>19.24480662835288</v>
       </c>
       <c r="G7">
-        <v>27.28212956873957</v>
+        <v>22.79967811019194</v>
       </c>
       <c r="H7">
-        <v>13.82887263332551</v>
+        <v>8.442515134958992</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.34259704931189</v>
+        <v>8.48704178579696</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.69842483449259</v>
+        <v>8.236190241384639</v>
       </c>
       <c r="M7">
-        <v>15.19532767167691</v>
+        <v>11.5057798255404</v>
       </c>
       <c r="N7">
-        <v>19.49727697559176</v>
+        <v>14.288675540443</v>
       </c>
       <c r="O7">
-        <v>20.86946037465553</v>
+        <v>14.05529243889627</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.66607609236047</v>
+        <v>15.40947624367359</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>11.74511387953175</v>
+        <v>7.058370211441132</v>
       </c>
       <c r="E8">
-        <v>18.10813444780944</v>
+        <v>12.40381241940268</v>
       </c>
       <c r="F8">
-        <v>29.15740274119919</v>
+        <v>19.67621899066708</v>
       </c>
       <c r="G8">
-        <v>27.43992442673188</v>
+        <v>24.20997290201842</v>
       </c>
       <c r="H8">
-        <v>13.79172343724286</v>
+        <v>8.53658556425064</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>12.3361523821658</v>
+        <v>8.515416123687773</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.873183364502522</v>
+        <v>8.91495464588127</v>
       </c>
       <c r="M8">
-        <v>15.34889846333627</v>
+        <v>12.28543406681711</v>
       </c>
       <c r="N8">
-        <v>19.46116155551773</v>
+        <v>14.26231938159358</v>
       </c>
       <c r="O8">
-        <v>20.84832395047616</v>
+        <v>14.48565543594224</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.17737912410628</v>
+        <v>17.41501453531355</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>11.67005901000644</v>
+        <v>6.891390610780419</v>
       </c>
       <c r="E9">
-        <v>18.05612626594493</v>
+        <v>12.38543557383573</v>
       </c>
       <c r="F9">
-        <v>29.07502257346488</v>
+        <v>20.63841082355111</v>
       </c>
       <c r="G9">
-        <v>27.81932331969288</v>
+        <v>26.93238178185021</v>
       </c>
       <c r="H9">
-        <v>13.73829781908943</v>
+        <v>8.765097210706788</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>12.3288941337992</v>
+        <v>8.579835838498486</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.209369997413393</v>
+        <v>10.1106200272713</v>
       </c>
       <c r="M9">
-        <v>15.65662441580921</v>
+        <v>13.69876607121767</v>
       </c>
       <c r="N9">
-        <v>19.4070965435142</v>
+        <v>14.24656431109264</v>
       </c>
       <c r="O9">
-        <v>20.84620954424974</v>
+        <v>15.38950310631668</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.55323898444518</v>
+        <v>18.7679302099292</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.62038673089277</v>
+        <v>6.77864689322801</v>
       </c>
       <c r="E10">
-        <v>18.02498579318376</v>
+        <v>12.38482574276112</v>
       </c>
       <c r="F10">
-        <v>29.04937287849345</v>
+        <v>21.41369842628443</v>
       </c>
       <c r="G10">
-        <v>28.13863183030236</v>
+        <v>28.8872289887671</v>
       </c>
       <c r="H10">
-        <v>13.71090205959559</v>
+        <v>8.96064793550809</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.32679484454222</v>
+        <v>8.632326604978775</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.450432509690522</v>
+        <v>10.90503868209285</v>
       </c>
       <c r="M10">
-        <v>15.8852969054409</v>
+        <v>14.67485262099544</v>
       </c>
       <c r="N10">
-        <v>19.3775286342862</v>
+        <v>14.25812493183603</v>
       </c>
       <c r="O10">
-        <v>20.86859199346652</v>
+        <v>16.08540878502964</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.72362394845359</v>
+        <v>19.35622500601744</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.59896723638887</v>
+        <v>6.729530597402134</v>
       </c>
       <c r="E11">
-        <v>18.01233955052062</v>
+        <v>12.38734493406776</v>
       </c>
       <c r="F11">
-        <v>29.04528898487953</v>
+        <v>21.78058020005603</v>
       </c>
       <c r="G11">
-        <v>28.29218730582804</v>
+        <v>29.76373797134573</v>
       </c>
       <c r="H11">
-        <v>13.70101462175482</v>
+        <v>9.055740721960978</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.32653191567819</v>
+        <v>8.657284516979484</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.55841543031808</v>
+        <v>11.24805604111052</v>
       </c>
       <c r="M11">
-        <v>15.98958219769665</v>
+        <v>15.1678961627911</v>
       </c>
       <c r="N11">
-        <v>19.36626852275334</v>
+        <v>14.26868033377318</v>
       </c>
       <c r="O11">
-        <v>20.88394895330197</v>
+        <v>16.40796147951858</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.7880057623545</v>
+        <v>19.57503644913526</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.59102466956632</v>
+        <v>6.711245885249524</v>
       </c>
       <c r="E12">
-        <v>18.00776805093908</v>
+        <v>12.38870057729235</v>
       </c>
       <c r="F12">
-        <v>29.04483282004717</v>
+        <v>21.92149019955747</v>
       </c>
       <c r="G12">
-        <v>28.35148078102802</v>
+        <v>30.09363174720793</v>
       </c>
       <c r="H12">
-        <v>13.69764068484265</v>
+        <v>9.092639239777</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.32653100051839</v>
+        <v>8.666886918782811</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.599033275996211</v>
+        <v>11.37530338857203</v>
       </c>
       <c r="M12">
-        <v>16.02908413674659</v>
+        <v>15.3506343631831</v>
       </c>
       <c r="N12">
-        <v>19.36231839718539</v>
+        <v>14.27346177071677</v>
       </c>
       <c r="O12">
-        <v>20.89050527598042</v>
+        <v>16.53089098181462</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.77414702027652</v>
+        <v>19.52808848747155</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.59272775864419</v>
+        <v>6.715169792398139</v>
       </c>
       <c r="E13">
-        <v>18.00874295692646</v>
+        <v>12.38839075841156</v>
       </c>
       <c r="F13">
-        <v>29.04488258400023</v>
+        <v>21.89105563603936</v>
       </c>
       <c r="G13">
-        <v>28.33866072529333</v>
+        <v>30.02267558754804</v>
       </c>
       <c r="H13">
-        <v>13.69835085911404</v>
+        <v>9.084652856364833</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.32652682401448</v>
+        <v>8.664812198802208</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.590298124867722</v>
+        <v>11.34801608610473</v>
       </c>
       <c r="M13">
-        <v>16.02057659711108</v>
+        <v>15.31145444090093</v>
       </c>
       <c r="N13">
-        <v>19.36315518827984</v>
+        <v>14.27239675343075</v>
       </c>
       <c r="O13">
-        <v>20.88906035779853</v>
+        <v>16.50438207011328</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.72892377259554</v>
+        <v>19.37430645116382</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.59831042286045</v>
+        <v>6.728019983681975</v>
       </c>
       <c r="E14">
-        <v>18.01195910108383</v>
+        <v>12.38744841624124</v>
       </c>
       <c r="F14">
-        <v>29.04522960875358</v>
+        <v>21.79213362472258</v>
       </c>
       <c r="G14">
-        <v>28.29704274647758</v>
+        <v>29.7909199406642</v>
       </c>
       <c r="H14">
-        <v>13.70072962693766</v>
+        <v>9.058758536308426</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.32652986828456</v>
+        <v>8.65807150066461</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.561762731590523</v>
+        <v>11.25857779095044</v>
       </c>
       <c r="M14">
-        <v>15.99283196764656</v>
+        <v>15.18300949965779</v>
       </c>
       <c r="N14">
-        <v>19.36593726057033</v>
+        <v>14.26905785474574</v>
       </c>
       <c r="O14">
-        <v>20.88447351644482</v>
+        <v>16.41805961475087</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.70120352160957</v>
+        <v>19.27959298358751</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.601751893709</v>
+        <v>6.735932139924838</v>
       </c>
       <c r="E15">
-        <v>18.01395735364271</v>
+        <v>12.38692350028042</v>
       </c>
       <c r="F15">
-        <v>29.04558414110818</v>
+        <v>21.73179703729728</v>
       </c>
       <c r="G15">
-        <v>28.27169821609819</v>
+        <v>29.6486949625696</v>
       </c>
       <c r="H15">
-        <v>13.70223490072384</v>
+        <v>9.043013457606655</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.32654455429612</v>
+        <v>8.653962227655748</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.544247517629955</v>
+        <v>11.20344963968261</v>
       </c>
       <c r="M15">
-        <v>15.97583828647094</v>
+        <v>15.10381742191013</v>
       </c>
       <c r="N15">
-        <v>19.36768219583564</v>
+        <v>14.26711550723261</v>
       </c>
       <c r="O15">
-        <v>20.88176033380772</v>
+        <v>16.36528487043072</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.54208732684557</v>
+        <v>18.72893195536</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.62181016521264</v>
+        <v>6.781900639363424</v>
       </c>
       <c r="E16">
-        <v>18.02584273519824</v>
+        <v>12.38471734378625</v>
       </c>
       <c r="F16">
-        <v>29.04979237806574</v>
+        <v>21.39000226306273</v>
       </c>
       <c r="G16">
-        <v>28.12875957965688</v>
+        <v>28.8296733124923</v>
       </c>
       <c r="H16">
-        <v>13.71160004020328</v>
+        <v>8.954557464999509</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.32682587961823</v>
+        <v>8.630716941659912</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.44333907129659</v>
+        <v>10.88225155893258</v>
       </c>
       <c r="M16">
-        <v>15.87848462839128</v>
+        <v>14.64207466133168</v>
       </c>
       <c r="N16">
-        <v>19.37830848923437</v>
+        <v>14.2575436222002</v>
       </c>
       <c r="O16">
-        <v>20.86769225866071</v>
+        <v>16.06444305606195</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.44428358062749</v>
+        <v>18.38411715847899</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.63441615837895</v>
+        <v>6.810658462749634</v>
       </c>
       <c r="E17">
-        <v>18.03352243413419</v>
+        <v>12.38407990182615</v>
       </c>
       <c r="F17">
-        <v>29.05431654521034</v>
+        <v>21.18391498441733</v>
       </c>
       <c r="G17">
-        <v>28.04316380130034</v>
+        <v>28.32381444614985</v>
       </c>
       <c r="H17">
-        <v>13.7180047675679</v>
+        <v>8.901869286726425</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.32717510152936</v>
+        <v>8.616730487276259</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.380982323246018</v>
+        <v>10.68049738491897</v>
       </c>
       <c r="M17">
-        <v>15.81880950600713</v>
+        <v>14.38658079349849</v>
       </c>
       <c r="N17">
-        <v>19.38538760005061</v>
+        <v>14.25304416334061</v>
       </c>
       <c r="O17">
-        <v>20.86038535999232</v>
+        <v>15.88136330457634</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.3879765261158</v>
+        <v>18.18323522783895</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.64177758627717</v>
+        <v>6.82740341559342</v>
       </c>
       <c r="E18">
-        <v>18.03808270745438</v>
+        <v>12.38397652484476</v>
       </c>
       <c r="F18">
-        <v>29.05763266062959</v>
+        <v>21.06671937011378</v>
       </c>
       <c r="G18">
-        <v>27.99471571176109</v>
+        <v>28.03166478884937</v>
       </c>
       <c r="H18">
-        <v>13.72193098256267</v>
+        <v>8.872141683372401</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.32744115605813</v>
+        <v>8.608787700275336</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.344960273695053</v>
+        <v>10.56272474517588</v>
       </c>
       <c r="M18">
-        <v>15.78451208379518</v>
+        <v>14.24379108019195</v>
       </c>
       <c r="N18">
-        <v>19.38966556671882</v>
+        <v>14.25095333539251</v>
       </c>
       <c r="O18">
-        <v>20.85666996283564</v>
+        <v>15.77662776631409</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.3689044905773</v>
+        <v>18.11478356031142</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.64428908887996</v>
+        <v>6.833107980213658</v>
       </c>
       <c r="E19">
-        <v>18.03965135318692</v>
+        <v>12.38398675211335</v>
       </c>
       <c r="F19">
-        <v>29.05887805564678</v>
+        <v>21.02727104365228</v>
       </c>
       <c r="G19">
-        <v>27.97844815935899</v>
+        <v>27.93254946717244</v>
       </c>
       <c r="H19">
-        <v>13.72330196148457</v>
+        <v>8.862175343801534</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.32754246040949</v>
+        <v>8.60611601924259</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.33273800597776</v>
+        <v>10.52255223606991</v>
       </c>
       <c r="M19">
-        <v>15.77290485343145</v>
+        <v>14.19515914481802</v>
       </c>
       <c r="N19">
-        <v>19.39114947085489</v>
+        <v>14.25033011556202</v>
       </c>
       <c r="O19">
-        <v>20.85549577978502</v>
+        <v>15.74126589189332</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.4547008268169</v>
+        <v>18.42108804879466</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.63306276702524</v>
+        <v>6.807575992848469</v>
       </c>
       <c r="E20">
-        <v>18.03269011383845</v>
+        <v>12.38412051513968</v>
       </c>
       <c r="F20">
-        <v>29.05376105007761</v>
+        <v>21.20571505764055</v>
       </c>
       <c r="G20">
-        <v>28.05219478327232</v>
+        <v>28.37778895421438</v>
       </c>
       <c r="H20">
-        <v>13.71729788754078</v>
+        <v>8.907418238287125</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.32713118543933</v>
+        <v>8.618208855835597</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.387636695175956</v>
+        <v>10.70215345515676</v>
       </c>
       <c r="M20">
-        <v>15.82515951035149</v>
+        <v>14.41287165917529</v>
       </c>
       <c r="N20">
-        <v>19.38461267883322</v>
+        <v>14.25347152279447</v>
       </c>
       <c r="O20">
-        <v>20.86111277510919</v>
+        <v>15.90079432629047</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.74221113711787</v>
+        <v>19.41958389528207</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.59666609051051</v>
+        <v>6.724237012797171</v>
       </c>
       <c r="E21">
-        <v>18.0110085519617</v>
+        <v>12.38771430747592</v>
       </c>
       <c r="F21">
-        <v>29.04509809442106</v>
+        <v>21.8211361764126</v>
       </c>
       <c r="G21">
-        <v>28.30923626817389</v>
+        <v>29.85904830123291</v>
       </c>
       <c r="H21">
-        <v>13.70002087856494</v>
+        <v>9.066340153997022</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.32652630371959</v>
+        <v>8.660047329572611</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.570151921423891</v>
+        <v>11.28491980377761</v>
       </c>
       <c r="M21">
-        <v>16.00098113730973</v>
+        <v>15.22084434791334</v>
       </c>
       <c r="N21">
-        <v>19.3651115904944</v>
+        <v>14.27001710066343</v>
       </c>
       <c r="O21">
-        <v>20.8858007019986</v>
+        <v>16.44339384202775</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.9292800870643</v>
+        <v>20.0490440828329</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.57386077742357</v>
+        <v>6.671605146539466</v>
       </c>
       <c r="E22">
-        <v>17.99810477496361</v>
+        <v>12.39240411354293</v>
       </c>
       <c r="F22">
-        <v>29.04579087427189</v>
+        <v>22.2348617133953</v>
       </c>
       <c r="G22">
-        <v>28.48387962923858</v>
+        <v>30.81530167014823</v>
       </c>
       <c r="H22">
-        <v>13.69088717386358</v>
+        <v>9.175388492487475</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.32670557864932</v>
+        <v>8.688271755891288</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.687831575115844</v>
+        <v>11.65037073416246</v>
       </c>
       <c r="M22">
-        <v>16.11594495091802</v>
+        <v>15.74538233978119</v>
       </c>
       <c r="N22">
-        <v>19.35419520853594</v>
+        <v>14.28541310913438</v>
       </c>
       <c r="O22">
-        <v>20.90625268575016</v>
+        <v>16.8025653050197</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.82953168329494</v>
+        <v>19.71521910966495</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.58594276822543</v>
+        <v>6.699526959196709</v>
       </c>
       <c r="E23">
-        <v>18.00487628071415</v>
+        <v>12.38968703481988</v>
       </c>
       <c r="F23">
-        <v>29.04483998108985</v>
+        <v>22.01301543389437</v>
       </c>
       <c r="G23">
-        <v>28.39007710329715</v>
+        <v>30.30606390969757</v>
       </c>
       <c r="H23">
-        <v>13.69556461512465</v>
+        <v>9.116711168317435</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.32655760906517</v>
+        <v>8.673128559006454</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.625180649166468</v>
+        <v>11.45673379008685</v>
       </c>
       <c r="M23">
-        <v>16.0545902412576</v>
+        <v>15.46753248092356</v>
       </c>
       <c r="N23">
-        <v>19.35985455041504</v>
+        <v>14.27676906490555</v>
       </c>
       <c r="O23">
-        <v>20.89494330731488</v>
+        <v>16.61047486800328</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.44999142982352</v>
+        <v>18.40438173798551</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.63367427988735</v>
+        <v>6.808968918270198</v>
       </c>
       <c r="E24">
-        <v>18.03306595375646</v>
+        <v>12.38410133433685</v>
       </c>
       <c r="F24">
-        <v>29.05400996189475</v>
+        <v>21.19585523199394</v>
       </c>
       <c r="G24">
-        <v>28.0481094989131</v>
+        <v>28.35339119047923</v>
       </c>
       <c r="H24">
-        <v>13.71761670778362</v>
+        <v>8.904907802522652</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.32715083649364</v>
+        <v>8.61754017920879</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.384628787951495</v>
+        <v>10.69236829429456</v>
       </c>
       <c r="M24">
-        <v>15.82228863835734</v>
+        <v>14.40099097678052</v>
       </c>
       <c r="N24">
-        <v>19.38496237244095</v>
+        <v>14.2532767704622</v>
       </c>
       <c r="O24">
-        <v>20.86078239839372</v>
+        <v>15.89200793766155</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.03879897700814</v>
+        <v>16.89321325792053</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>11.68939921947856</v>
+        <v>6.934822367215017</v>
       </c>
       <c r="E25">
-        <v>18.0689492843708</v>
+        <v>12.38814234997206</v>
       </c>
       <c r="F25">
-        <v>29.09119029266744</v>
+        <v>20.36589560918621</v>
       </c>
       <c r="G25">
-        <v>27.70939766966956</v>
+        <v>26.20268003349495</v>
       </c>
       <c r="H25">
-        <v>13.75066947724375</v>
+        <v>8.698469582076616</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>12.33028648435531</v>
+        <v>8.56148797371017</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.119326670141046</v>
+        <v>9.801846795260152</v>
       </c>
       <c r="M25">
-        <v>15.57281856809577</v>
+        <v>13.32960412664779</v>
       </c>
       <c r="N25">
-        <v>19.41993487110678</v>
+        <v>14.2468541471858</v>
       </c>
       <c r="O25">
-        <v>20.84257237958606</v>
+        <v>15.13905967883931</v>
       </c>
     </row>
   </sheetData>
